--- a/附件14.xlsx
+++ b/附件14.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="21555" windowHeight="9645"/>
+    <workbookView xWindow="0" yWindow="78" windowWidth="21558" windowHeight="9648"/>
   </bookViews>
   <sheets>
     <sheet name="Modules using ENCORI" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Module ID</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -78,11 +78,7 @@
     <t>CTBP1-DT, FRMD6-AS2, L3MBTL2-AS1, PRR34, STARD4-AS1, FAM225B, LINC01788, TTC3P1, NAIPP4, STAG3L3, DYNC1I2P1, SLC47A1P2</t>
   </si>
   <si>
-    <t>ceRNAs</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ceRNAs</t>
+    <t>ncRNAs</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1051,10 +1047,10 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="14.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.734375" style="2" customWidth="1"/>
     <col min="3" max="9" width="9" style="2"/>
     <col min="10" max="10" width="9" style="3"/>
     <col min="11" max="21" width="9" style="2"/>
@@ -1113,7 +1109,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
     <col min="2" max="2" width="16" style="2" customWidth="1"/>
@@ -1129,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2">
